--- a/tableau/PersonalVehicleSalesGlobal.xlsx
+++ b/tableau/PersonalVehicleSalesGlobal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\test_db\tableau\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A109807-40E6-4E70-93C9-99565298D4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="5775" windowWidth="19440" windowHeight="6150"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pc_sales" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,17 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">pc_sales!$A:$A,pc_sales!$5:$5</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -523,12 +539,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,###,##0"/>
     <numFmt numFmtId="165" formatCode="###,##0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -1241,17 +1257,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="Ligne détail" xfId="5"/>
-    <cellStyle name="Ligne détail 2" xfId="10"/>
-    <cellStyle name="MEV1" xfId="7"/>
-    <cellStyle name="MEV2" xfId="8"/>
-    <cellStyle name="MEV3" xfId="9"/>
+    <cellStyle name="Ligne détail" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Ligne détail 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="MEV1" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="MEV2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="MEV3" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Percent" xfId="11" builtinId="5"/>
-    <cellStyle name="Titre colonnes" xfId="4"/>
-    <cellStyle name="Titre général" xfId="1"/>
-    <cellStyle name="Titre lignes" xfId="3"/>
-    <cellStyle name="Titre page" xfId="2"/>
+    <cellStyle name="Titre colonnes" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Titre général" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Titre lignes" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Titre page" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Total" xfId="6" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1268,6 +1284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1316,7 +1335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1348,9 +1367,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1382,6 +1419,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1557,17 +1612,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB166"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" defaultGridColor="0" colorId="8" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomRight" activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="36.7109375" hidden="1" customWidth="1"/>
@@ -1576,8 +1631,8 @@
     <col min="13" max="14" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="13.5" customHeight="1"/>
-    <row r="2" spans="1:14" ht="23.25">
+    <row r="1" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1586,13 +1641,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -1601,7 +1656,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
@@ -1639,7 +1694,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="13.5" thickBot="1">
+    <row r="6" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -1655,7 +1710,7 @@
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
     </row>
-    <row r="7" spans="1:14" ht="13.5" thickBot="1">
+    <row r="7" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>152</v>
       </c>
@@ -1693,7 +1748,7 @@
         <v>16060143</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="13.5" thickBot="1">
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>164</v>
       </c>
@@ -1731,7 +1786,7 @@
         <v>13013515</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="13.5" thickBot="1">
+    <row r="9" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>159</v>
       </c>
@@ -1769,7 +1824,7 @@
         <v>12113882</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>90</v>
       </c>
@@ -1807,7 +1862,7 @@
         <v>303318</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>91</v>
       </c>
@@ -1845,7 +1900,7 @@
         <v>482939</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>92</v>
       </c>
@@ -1883,7 +1938,7 @@
         <v>189051</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>93</v>
       </c>
@@ -1921,7 +1976,7 @@
         <v>106236</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>94</v>
       </c>
@@ -1959,7 +2014,7 @@
         <v>1795885</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>95</v>
       </c>
@@ -1997,7 +2052,7 @@
         <v>3036773</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>96</v>
       </c>
@@ -2035,7 +2090,7 @@
         <v>71218</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>97</v>
       </c>
@@ -2073,7 +2128,7 @@
         <v>9536</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>98</v>
       </c>
@@ -2111,7 +2166,7 @@
         <v>96344</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>99</v>
       </c>
@@ -2149,7 +2204,7 @@
         <v>1360293</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>100</v>
       </c>
@@ -2187,7 +2242,7 @@
         <v>49793</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>101</v>
       </c>
@@ -2239,7 +2294,7 @@
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>102</v>
       </c>
@@ -2277,7 +2332,7 @@
         <v>144202</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>103</v>
       </c>
@@ -2315,7 +2370,7 @@
         <v>142826</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>104</v>
       </c>
@@ -2353,7 +2408,7 @@
         <v>855308</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
@@ -2391,7 +2446,7 @@
         <v>303948</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>161</v>
       </c>
@@ -2429,7 +2484,7 @@
         <v>301942</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="13.5" thickBot="1">
+    <row r="27" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>106</v>
       </c>
@@ -2467,7 +2522,7 @@
         <v>2476435</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="13.5" thickBot="1">
+    <row r="28" spans="1:28" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>148</v>
       </c>
@@ -2505,7 +2560,7 @@
         <v>899633</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>165</v>
       </c>
@@ -2543,7 +2598,7 @@
         <v>20359</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>84</v>
       </c>
@@ -2581,7 +2636,7 @@
         <v>33997</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>107</v>
       </c>
@@ -2619,7 +2674,7 @@
         <v>7794</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>108</v>
       </c>
@@ -2657,7 +2712,7 @@
         <v>192314</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>134</v>
       </c>
@@ -2695,7 +2750,7 @@
         <v>20861</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>109</v>
       </c>
@@ -2733,7 +2788,7 @@
         <v>67476</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>135</v>
       </c>
@@ -2771,7 +2826,7 @@
         <v>12452</v>
       </c>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>136</v>
       </c>
@@ -2809,7 +2864,7 @@
         <v>14503</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>110</v>
       </c>
@@ -2847,7 +2902,7 @@
         <v>6451</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>111</v>
       </c>
@@ -2885,7 +2940,7 @@
         <v>327709</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>112</v>
       </c>
@@ -2923,7 +2978,7 @@
         <v>70172</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>149</v>
       </c>
@@ -2961,7 +3016,7 @@
         <v>72249</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="13.5" thickBot="1">
+    <row r="41" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
@@ -2999,7 +3054,7 @@
         <v>53296</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="13.5" thickBot="1">
+    <row r="42" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
         <v>157</v>
       </c>
@@ -3037,7 +3092,7 @@
         <v>3046628</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>150</v>
       </c>
@@ -3075,7 +3130,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>151</v>
       </c>
@@ -3113,7 +3168,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>82</v>
       </c>
@@ -3151,7 +3206,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>83</v>
       </c>
@@ -3189,7 +3244,7 @@
         <v>8900</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>85</v>
       </c>
@@ -3227,7 +3282,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
         <v>51</v>
       </c>
@@ -3265,7 +3320,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>86</v>
       </c>
@@ -3303,7 +3358,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>87</v>
       </c>
@@ -3341,7 +3396,7 @@
         <v>2286877</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>137</v>
       </c>
@@ -3379,7 +3434,7 @@
         <v>23900</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>88</v>
       </c>
@@ -3417,7 +3472,7 @@
         <v>587331</v>
       </c>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>89</v>
       </c>
@@ -3455,7 +3510,7 @@
         <v>97020</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="13.5" thickBot="1">
+    <row r="54" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -3471,7 +3526,7 @@
       <c r="M54" s="69"/>
       <c r="N54" s="69"/>
     </row>
-    <row r="55" spans="1:14" ht="13.5" thickBot="1">
+    <row r="55" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>153</v>
       </c>
@@ -3509,7 +3564,7 @@
         <v>13179280</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="13.5" thickBot="1">
+    <row r="56" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29" t="s">
         <v>114</v>
       </c>
@@ -3547,7 +3602,7 @@
         <v>9188369</v>
       </c>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>115</v>
       </c>
@@ -3585,7 +3640,7 @@
         <v>755500</v>
       </c>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
@@ -3623,7 +3678,7 @@
         <v>745250</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="13.5" thickBot="1">
+    <row r="59" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>117</v>
       </c>
@@ -3661,7 +3716,7 @@
         <v>7687619</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="13.5" thickBot="1">
+    <row r="60" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29" t="s">
         <v>158</v>
       </c>
@@ -3699,7 +3754,7 @@
         <v>3990911</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="24" t="s">
         <v>118</v>
       </c>
@@ -3737,7 +3792,7 @@
         <v>432696</v>
       </c>
     </row>
-    <row r="62" spans="1:14">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
         <v>76</v>
       </c>
@@ -3775,7 +3830,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="63" spans="1:14">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
         <v>119</v>
       </c>
@@ -3813,7 +3868,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:14">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
         <v>120</v>
       </c>
@@ -3851,7 +3906,7 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
         <v>121</v>
       </c>
@@ -3889,7 +3944,7 @@
         <v>2504161</v>
       </c>
     </row>
-    <row r="66" spans="1:14">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
         <v>122</v>
       </c>
@@ -3927,7 +3982,7 @@
         <v>256160</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
         <v>123</v>
       </c>
@@ -3965,7 +4020,7 @@
         <v>265100</v>
       </c>
     </row>
-    <row r="68" spans="1:14">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
         <v>124</v>
       </c>
@@ -4003,7 +4058,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
         <v>77</v>
       </c>
@@ -4041,7 +4096,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
         <v>78</v>
       </c>
@@ -4079,7 +4134,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="71" spans="1:14">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
         <v>125</v>
       </c>
@@ -4117,7 +4172,7 @@
         <v>78495</v>
       </c>
     </row>
-    <row r="72" spans="1:14">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
         <v>126</v>
       </c>
@@ -4155,7 +4210,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="73" spans="1:14">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
         <v>139</v>
       </c>
@@ -4193,7 +4248,7 @@
         <v>12599</v>
       </c>
     </row>
-    <row r="74" spans="1:14">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
         <v>138</v>
       </c>
@@ -4231,7 +4286,7 @@
         <v>17300</v>
       </c>
     </row>
-    <row r="75" spans="1:14">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
         <v>141</v>
       </c>
@@ -4269,7 +4324,7 @@
         <v>4248</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
         <v>127</v>
       </c>
@@ -4307,7 +4362,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="77" spans="1:14">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
         <v>79</v>
       </c>
@@ -4345,7 +4400,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="78" spans="1:14">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
         <v>140</v>
       </c>
@@ -4383,7 +4438,7 @@
         <v>11325</v>
       </c>
     </row>
-    <row r="79" spans="1:14">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
         <v>128</v>
       </c>
@@ -4421,7 +4476,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
         <v>129</v>
       </c>
@@ -4459,7 +4514,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="81" spans="1:14">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
         <v>130</v>
       </c>
@@ -4497,7 +4552,7 @@
         <v>21500</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
         <v>131</v>
       </c>
@@ -4535,7 +4590,7 @@
         <v>138226</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
         <v>80</v>
       </c>
@@ -4573,7 +4628,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="84" spans="1:14">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
         <v>81</v>
       </c>
@@ -4611,7 +4666,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="85" spans="1:14">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
         <v>132</v>
       </c>
@@ -4649,7 +4704,7 @@
         <v>40171</v>
       </c>
     </row>
-    <row r="86" spans="1:14">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
         <v>133</v>
       </c>
@@ -4687,7 +4742,7 @@
         <v>10430</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="13.5" thickBot="1">
+    <row r="87" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -4703,7 +4758,7 @@
       <c r="M87" s="69"/>
       <c r="N87" s="69"/>
     </row>
-    <row r="88" spans="1:14" ht="13.5" thickBot="1">
+    <row r="88" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
         <v>147</v>
       </c>
@@ -4741,7 +4796,7 @@
         <v>34506093</v>
       </c>
     </row>
-    <row r="89" spans="1:14">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="24" t="s">
         <v>31</v>
       </c>
@@ -4779,7 +4834,7 @@
         <v>531596</v>
       </c>
     </row>
-    <row r="90" spans="1:14">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
         <v>32</v>
       </c>
@@ -4817,7 +4872,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="91" spans="1:14">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
         <v>33</v>
       </c>
@@ -4855,7 +4910,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="92" spans="1:14">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
         <v>34</v>
       </c>
@@ -4893,7 +4948,7 @@
         <v>29300</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
         <v>35</v>
       </c>
@@ -4931,7 +4986,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
         <v>36</v>
       </c>
@@ -4969,7 +5024,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="95" spans="1:14">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="8" t="s">
         <v>37</v>
       </c>
@@ -5007,7 +5062,7 @@
         <v>19700569</v>
       </c>
     </row>
-    <row r="96" spans="1:14">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
         <v>38</v>
       </c>
@@ -5045,7 +5100,7 @@
         <v>48500</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
         <v>39</v>
       </c>
@@ -5083,7 +5138,7 @@
         <v>2570531</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
         <v>40</v>
       </c>
@@ -5121,7 +5176,7 @@
         <v>879461</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
         <v>41</v>
       </c>
@@ -5159,7 +5214,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
         <v>42</v>
       </c>
@@ -5197,7 +5252,7 @@
         <v>1106700</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
         <v>43</v>
       </c>
@@ -5235,7 +5290,7 @@
         <v>228000</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
         <v>44</v>
       </c>
@@ -5273,7 +5328,7 @@
         <v>4699590</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
         <v>45</v>
       </c>
@@ -5311,7 +5366,7 @@
         <v>15700</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="8" t="s">
         <v>46</v>
       </c>
@@ -5354,7 +5409,7 @@
       </c>
       <c r="O104" s="48"/>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
         <v>47</v>
       </c>
@@ -5392,7 +5447,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
         <v>48</v>
       </c>
@@ -5430,7 +5485,7 @@
         <v>126300</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
         <v>49</v>
       </c>
@@ -5468,7 +5523,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
         <v>50</v>
       </c>
@@ -5506,7 +5561,7 @@
         <v>38300</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
         <v>53</v>
       </c>
@@ -5544,7 +5599,7 @@
         <v>588341</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
         <v>54</v>
       </c>
@@ -5582,7 +5637,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
         <v>55</v>
       </c>
@@ -5620,7 +5675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
         <v>56</v>
       </c>
@@ -5658,7 +5713,7 @@
         <v>5300</v>
       </c>
     </row>
-    <row r="113" spans="1:14">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
         <v>57</v>
       </c>
@@ -5696,7 +5751,7 @@
         <v>5343</v>
       </c>
     </row>
-    <row r="114" spans="1:14">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
         <v>58</v>
       </c>
@@ -5734,7 +5789,7 @@
         <v>84007</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
         <v>59</v>
       </c>
@@ -5772,7 +5827,7 @@
         <v>138600</v>
       </c>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
         <v>60</v>
       </c>
@@ -5810,7 +5865,7 @@
         <v>123950</v>
       </c>
     </row>
-    <row r="117" spans="1:14" s="10" customFormat="1">
+    <row r="117" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="25" t="s">
         <v>61</v>
       </c>
@@ -5848,7 +5903,7 @@
         <v>21100</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
         <v>62</v>
       </c>
@@ -5886,7 +5941,7 @@
         <v>108327</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
         <v>63</v>
       </c>
@@ -5924,7 +5979,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
         <v>64</v>
       </c>
@@ -5962,7 +6017,7 @@
         <v>632700</v>
       </c>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
         <v>65</v>
       </c>
@@ -6000,7 +6055,7 @@
         <v>28932</v>
       </c>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
         <v>66</v>
       </c>
@@ -6038,7 +6093,7 @@
         <v>1359834</v>
       </c>
     </row>
-    <row r="123" spans="1:14">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
         <v>67</v>
       </c>
@@ -6076,7 +6131,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
         <v>68</v>
       </c>
@@ -6114,7 +6169,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
         <v>69</v>
       </c>
@@ -6152,7 +6207,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
         <v>70</v>
       </c>
@@ -6190,7 +6245,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
         <v>71</v>
       </c>
@@ -6228,7 +6283,7 @@
         <v>235480</v>
       </c>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
         <v>72</v>
       </c>
@@ -6266,7 +6321,7 @@
         <v>411402</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
         <v>73</v>
       </c>
@@ -6304,7 +6359,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="130" spans="1:14">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
         <v>74</v>
       </c>
@@ -6342,7 +6397,7 @@
         <v>206700</v>
       </c>
     </row>
-    <row r="131" spans="1:14">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
         <v>146</v>
       </c>
@@ -6380,7 +6435,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="132" spans="1:14">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
         <v>75</v>
       </c>
@@ -6418,7 +6473,7 @@
         <v>79806</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="20" t="s">
         <v>28</v>
       </c>
@@ -6456,7 +6511,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="13.5" thickBot="1">
+    <row r="134" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -6472,7 +6527,7 @@
       <c r="M134" s="69"/>
       <c r="N134" s="69"/>
     </row>
-    <row r="135" spans="1:14" ht="13.5" thickBot="1">
+    <row r="135" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="29" t="s">
         <v>7</v>
       </c>
@@ -6510,7 +6565,7 @@
         <v>1230518</v>
       </c>
     </row>
-    <row r="136" spans="1:14">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" s="35" t="s">
         <v>8</v>
       </c>
@@ -6548,7 +6603,7 @@
         <v>178200</v>
       </c>
     </row>
-    <row r="137" spans="1:14">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" s="8" t="s">
         <v>9</v>
       </c>
@@ -6586,7 +6641,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="138" spans="1:14">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" s="8" t="s">
         <v>143</v>
       </c>
@@ -6624,7 +6679,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="139" spans="1:14">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>10</v>
       </c>
@@ -6662,7 +6717,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="140" spans="1:14">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>11</v>
       </c>
@@ -6700,7 +6755,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:14">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>144</v>
       </c>
@@ -6738,7 +6793,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="142" spans="1:14">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>12</v>
       </c>
@@ -6776,7 +6831,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="143" spans="1:14">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>13</v>
       </c>
@@ -6814,7 +6869,7 @@
         <v>273500</v>
       </c>
     </row>
-    <row r="144" spans="1:14">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>14</v>
       </c>
@@ -6852,7 +6907,7 @@
         <v>2900</v>
       </c>
     </row>
-    <row r="145" spans="1:14">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>15</v>
       </c>
@@ -6890,7 +6945,7 @@
         <v>6900</v>
       </c>
     </row>
-    <row r="146" spans="1:14">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" s="8" t="s">
         <v>16</v>
       </c>
@@ -6928,7 +6983,7 @@
         <v>4300</v>
       </c>
     </row>
-    <row r="147" spans="1:14">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>17</v>
       </c>
@@ -6966,7 +7021,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="148" spans="1:14">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>18</v>
       </c>
@@ -7004,7 +7059,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:14">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>19</v>
       </c>
@@ -7042,7 +7097,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="150" spans="1:14">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>52</v>
       </c>
@@ -7080,7 +7135,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>20</v>
       </c>
@@ -7118,7 +7173,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="152" spans="1:14">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>21</v>
       </c>
@@ -7156,7 +7211,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="153" spans="1:14">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>22</v>
       </c>
@@ -7194,7 +7249,7 @@
         <v>109649</v>
       </c>
     </row>
-    <row r="154" spans="1:14">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" s="8" t="s">
         <v>23</v>
       </c>
@@ -7232,7 +7287,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" s="8" t="s">
         <v>142</v>
       </c>
@@ -7270,7 +7325,7 @@
         <v>20605</v>
       </c>
     </row>
-    <row r="156" spans="1:14">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>24</v>
       </c>
@@ -7308,7 +7363,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="157" spans="1:14">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>25</v>
       </c>
@@ -7346,7 +7401,7 @@
         <v>439264</v>
       </c>
     </row>
-    <row r="158" spans="1:14">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>160</v>
       </c>
@@ -7384,7 +7439,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>26</v>
       </c>
@@ -7422,7 +7477,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="160" spans="1:14">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>27</v>
       </c>
@@ -7460,7 +7515,7 @@
         <v>37100</v>
       </c>
     </row>
-    <row r="161" spans="1:14">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>145</v>
       </c>
@@ -7498,7 +7553,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="162" spans="1:14">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>29</v>
       </c>
@@ -7536,7 +7591,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="163" spans="1:14">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" s="20" t="s">
         <v>30</v>
       </c>
@@ -7574,8 +7629,8 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="13.5" thickBot="1"/>
-    <row r="165" spans="1:14" ht="13.5" thickBot="1">
+    <row r="164" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="29" t="s">
         <v>155</v>
       </c>
@@ -7613,7 +7668,7 @@
         <v>64976034</v>
       </c>
     </row>
-    <row r="166" spans="1:14">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>166</v>
       </c>
